--- a/Excel/RP 2100.xlsx
+++ b/Excel/RP 2100.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd6f5322b1880050/Escritorio/JPCM/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd6f5322b1880050/Documentos/GitHub/administrador/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_9FC441CCCFEEAE6D52DA80A56036912F8FB148B9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2863FAE8-E53C-4898-BE09-1F29F46257C7}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_9FC441CCCFEEAE6D52DA80A56036912F8FB148B9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5083A70-7574-4860-9350-5AABBFF0FF4C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1141,9 +1141,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="15">
@@ -1656,12 +1655,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Carlos Otero" refreshedDate="45667.608452199071" refreshedVersion="8" recordCount="97" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Carlos Otero" refreshedDate="45677.574458796298" refreshedVersion="8" recordCount="97" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AI98" sheet="RP"/>
   </cacheSource>
@@ -1722,10 +1717,10 @@
     <cacheField name="EDAD" numFmtId="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="55"/>
     </cacheField>
-    <cacheField name="POSICION PUESTO " numFmtId="166">
-      <sharedItems containsNonDate="0" containsDate="1" containsMixedTypes="1" minDate="1993-11-25T00:00:00" maxDate="2024-12-11T00:00:00"/>
+    <cacheField name="POSICION PUESTO" numFmtId="166">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="1993-11-25T00:00:00" maxDate="2024-12-11T00:00:00"/>
     </cacheField>
-    <cacheField name="ING A POLICIA " numFmtId="166">
+    <cacheField name="ING A POLICIA" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1992-12-09T00:00:00" maxDate="2020-03-10T00:00:00"/>
     </cacheField>
     <cacheField name="ANTIGÜEDAD" numFmtId="1">
@@ -2178,7 +2173,7 @@
     <n v="31968472"/>
     <s v="M"/>
     <d v="1987-01-26T00:00:00"/>
-    <n v="37"/>
+    <n v="38"/>
     <d v="2014-06-05T00:00:00"/>
     <d v="2007-12-20T00:00:00"/>
     <n v="17"/>
@@ -2736,7 +2731,7 @@
     <n v="55"/>
     <d v="2020-09-05T00:00:00"/>
     <d v="1993-01-23T00:00:00"/>
-    <n v="31"/>
+    <n v="32"/>
     <d v="2021-01-01T00:00:00"/>
     <s v="BERSA MINI THUNDER PRO"/>
     <s v="13-F21548"/>
@@ -4734,7 +4729,7 @@
     <n v="51"/>
     <d v="2021-05-19T00:00:00"/>
     <d v="1993-01-22T00:00:00"/>
-    <n v="31"/>
+    <n v="32"/>
     <d v="2020-01-01T00:00:00"/>
     <s v="BERSA MINI"/>
     <s v="13-F63049"/>
@@ -5421,8 +5416,8 @@
     <pivotField name="SEXO" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="FECHA DE NACIMIENTO" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="EDAD" compact="0" numFmtId="1" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="POSICION PUESTO " compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="ING A POLICIA " compact="0" numFmtId="165" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" numFmtId="166" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" numFmtId="1" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField name="ULTIMO ASCENSO" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -6756,7 +6751,7 @@
       </c>
       <c r="O12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P12" s="48">
         <v>41795</v>
@@ -8085,7 +8080,7 @@
       </c>
       <c r="R27" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S27" s="46">
         <v>44197</v>
@@ -12755,7 +12750,7 @@
       </c>
       <c r="R81" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S81" s="46">
         <v>43831</v>
